--- a/Datasets/K01_num_days_outcomes.xlsx
+++ b/Datasets/K01_num_days_outcomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinaramont/galloway_lab/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FDC9AD-4224-BE45-9DA3-79029E06ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3775B4DD-0D6B-E346-8B46-0C5453D3FE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34337F0D-A30F-3344-99E8-153CF112253D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -906,9 +906,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H674"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
